--- a/NformTester/Nformtester/keywordscripts/TST958_AlarmAndEventManagement.xlsx
+++ b/NformTester/Nformtester/keywordscripts/TST958_AlarmAndEventManagement.xlsx
@@ -1274,7 +1274,7 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CI$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CI:$CI</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3892,10 +3892,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Pass</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4009,6 +4005,9 @@
   <si>
     <t>FormManaged_Devices</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -4019,7 +4018,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4027,41 +4026,41 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4069,8 +4068,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4110,7 +4109,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4273,25 +4272,11 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4312,7 +4297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4598,24 +4583,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>815</v>
       </c>
@@ -4659,7 +4644,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
         <v>824</v>
       </c>
@@ -4682,7 +4667,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4690,7 +4675,7 @@
         <v>826</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4718,7 +4703,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4738,7 +4723,7 @@
         <v>861</v>
       </c>
       <c r="F4" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="9"/>
@@ -4748,10 +4733,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
         <v>830</v>
       </c>
@@ -4774,7 +4759,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4787,8 +4772,8 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>862</v>
+      <c r="D6" s="9" t="s">
+        <v>897</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>632</v>
@@ -4801,10 +4786,10 @@
         <v>853</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>854</v>
@@ -4816,10 +4801,10 @@
         <v>856</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
         <v>832</v>
       </c>
@@ -4842,7 +4827,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4850,7 +4835,7 @@
         <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4874,7 +4859,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="16" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4906,7 +4891,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4934,7 +4919,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4966,7 +4951,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4996,7 +4981,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5024,7 +5009,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1">
@@ -5036,7 +5021,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
@@ -5048,7 +5033,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5068,19 +5053,19 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5095,7 +5080,7 @@
         <v>860</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F16" s="4">
         <v>10</v>
@@ -5108,7 +5093,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5126,7 +5111,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5138,7 +5123,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5168,7 +5153,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5200,7 +5185,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5286,7 +5271,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5314,7 +5299,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5340,7 +5325,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5364,15 +5349,15 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="15">
       <c r="C26" s="4">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="4"/>
@@ -5384,7 +5369,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5400,19 +5385,19 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5436,7 +5421,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -5462,7 +5447,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5506,10 +5491,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>874</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>875</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5566,7 +5551,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="3:14">
@@ -5592,7 +5577,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="3:14">
@@ -5608,19 +5593,19 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I35" s="9">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="3:14">
@@ -5636,19 +5621,19 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I36" s="9">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="3:14">
@@ -5664,19 +5649,19 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I37" s="9">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="3:14">
@@ -5700,7 +5685,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -5728,7 +5713,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="3:14">
@@ -5754,7 +5739,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" spans="3:14">
@@ -5782,7 +5767,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="3:14">
@@ -5808,15 +5793,15 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" ht="15">
       <c r="C43" s="4">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="4"/>
@@ -5842,19 +5827,19 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I44" s="9">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="3:14">
@@ -5870,19 +5855,19 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I45" s="9">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" spans="3:14">
@@ -5898,19 +5883,19 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="47" spans="3:14">
@@ -5934,7 +5919,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="3:14">
@@ -5962,7 +5947,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" spans="3:14">
@@ -5988,7 +5973,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="3:14">
@@ -6016,7 +6001,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51" spans="3:14">
@@ -6042,15 +6027,15 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:14" ht="15">
       <c r="C52" s="4">
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4"/>
@@ -6076,19 +6061,19 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="3:14">
@@ -6132,7 +6117,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="4"/>
@@ -6206,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="4"/>
@@ -6264,7 +6249,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="3:14">
@@ -6290,15 +6275,15 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="62" spans="3:14">
+    <row r="62" spans="3:14" ht="15">
       <c r="C62" s="4">
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="4"/>
@@ -6324,19 +6309,19 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I63" s="9">
         <v>1</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="3:14">
@@ -6380,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="4"/>
@@ -6426,19 +6411,19 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I67" s="9">
         <v>1</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="68" spans="3:14">
@@ -6462,7 +6447,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="69" spans="3:14">
@@ -6490,7 +6475,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" spans="3:14">
@@ -6522,7 +6507,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>226</v>
@@ -6534,13 +6519,13 @@
         <v>7</v>
       </c>
       <c r="H71" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6596,7 +6581,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -6622,15 +6607,15 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="75" spans="3:14">
+    <row r="75" spans="3:14" ht="15">
       <c r="C75" s="4">
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="4"/>
@@ -6656,19 +6641,19 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I76" s="9">
         <v>1</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="3:14">
@@ -6692,7 +6677,7 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" spans="3:14">
@@ -6718,7 +6703,7 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="3:14">
@@ -6762,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I80" s="9" t="b">
         <v>0</v>
@@ -6790,10 +6775,10 @@
         <v>7</v>
       </c>
       <c r="H81" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>874</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>875</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -6874,7 +6859,7 @@
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="85" spans="3:14">
@@ -6900,15 +6885,15 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="86" spans="3:14">
+    <row r="86" spans="3:14" ht="15">
       <c r="C86" s="4">
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="4"/>
@@ -6986,7 +6971,7 @@
         <v>56</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="4"/>
@@ -7084,7 +7069,7 @@
         <v>13</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="9"/>
@@ -7146,7 +7131,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>811</v>
@@ -7228,13 +7213,13 @@
         <v>7</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -7294,7 +7279,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>811</v>
@@ -7335,12 +7320,12 @@
       <c r="M103" s="4"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="3:14">
+    <row r="104" spans="3:14" ht="15">
       <c r="C104" s="4">
         <v>103</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="4"/>
@@ -7418,7 +7403,7 @@
         <v>56</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="4"/>
@@ -7468,7 +7453,7 @@
         <v>4</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -7530,7 +7515,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>811</v>
@@ -7571,14 +7556,14 @@
       <c r="M113" s="4"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="15">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="4">
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7653,10 +7638,10 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>896</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>897</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>633</v>
@@ -7675,17 +7660,17 @@
       <c r="N117" s="20"/>
       <c r="O117" s="19"/>
     </row>
-    <row r="118" spans="1:15" ht="16.5">
+    <row r="118" spans="1:15" ht="14.25">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="4">
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>896</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>897</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>215</v>
@@ -7709,7 +7694,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>640</v>
@@ -7736,10 +7721,10 @@
         <v>119</v>
       </c>
       <c r="D120" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>896</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>897</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>100</v>
@@ -7791,7 +7776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:86">
       <c r="A1" t="s">
@@ -11754,7 +11739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1083">
       <c r="A1" t="s">
@@ -31171,9 +31156,9 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="2" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -31197,7 +31182,7 @@
         <v>826</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -31237,7 +31222,7 @@
         <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -31327,6 +31312,7 @@
       <c r="B22" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>